--- a/data.xlsx
+++ b/data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="44">
   <si>
     <t>State</t>
   </si>
@@ -139,6 +139,18 @@
   </si>
   <si>
     <t>\xmark</t>
+  </si>
+  <si>
+    <t>Deterministic</t>
+  </si>
+  <si>
+    <t>No. of binary variable</t>
+  </si>
+  <si>
+    <t>No. of constraints</t>
+  </si>
+  <si>
+    <t>No. of continuous variables</t>
   </si>
 </sst>
 </file>
@@ -182,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -193,10 +205,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,16 +490,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:F33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -635,43 +649,43 @@
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4" t="s">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4" t="s">
+      <c r="E14" s="5"/>
+      <c r="F14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4" t="s">
+      <c r="G14" s="5"/>
+      <c r="H14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="4"/>
+      <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="5">
         <v>100</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5">
         <v>50</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4">
+      <c r="E15" s="5"/>
+      <c r="F15" s="5">
         <v>80</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4">
+      <c r="G15" s="5"/>
+      <c r="H15" s="5">
         <v>200</v>
       </c>
-      <c r="I15" s="4"/>
+      <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -832,12 +846,12 @@
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
@@ -935,6 +949,59 @@
       </c>
       <c r="F33" s="3" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40">
+        <v>150</v>
+      </c>
+      <c r="C40">
+        <v>4670</v>
+      </c>
+      <c r="D40">
+        <v>118579</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>56</v>
+      </c>
+      <c r="C41">
+        <v>96</v>
+      </c>
+      <c r="D41">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42">
+        <v>122</v>
+      </c>
+      <c r="C42">
+        <v>9194</v>
+      </c>
+      <c r="D42">
+        <v>218188</v>
       </c>
     </row>
   </sheetData>
